--- a/AHPQuantVal.xlsx
+++ b/AHPQuantVal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonis\PycharmProjects\MCDMComparisonPhd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272BE601-52AD-4C37-8CED-2E95EEDB53B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF602EB4-B05C-4759-9490-613C6B8AAE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD67BE17-0649-4710-B73F-10000EAD52F2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD67BE17-0649-4710-B73F-10000EAD52F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,7 +238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -314,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,7 +384,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +393,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E23ABE2-3EC2-40B6-9FF9-209DF1E46850}">
   <dimension ref="A1:Z233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,6 +1698,10 @@
         <f t="array" ref="D40">SUM(B40:C40/2)</f>
         <v>9.9549549549549546E-2</v>
       </c>
+      <c r="E40" s="36">
+        <f>SUM(B40:C40)</f>
+        <v>0.19909909909909909</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -1706,6 +1718,10 @@
       <c r="D41" s="14">
         <f t="array" ref="D41">SUM(B41:C41/2)</f>
         <v>0.90045045045045047</v>
+      </c>
+      <c r="E41" s="36">
+        <f>SUM(B41:C41)</f>
+        <v>1.8009009009009009</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -3278,13 +3294,13 @@
       <c r="R126" s="5">
         <v>2</v>
       </c>
-      <c r="S126" s="31">
+      <c r="S126" s="35">
         <v>3</v>
       </c>
       <c r="T126" s="5">
         <v>4</v>
       </c>
-      <c r="U126" s="7">
+      <c r="U126" s="34">
         <v>5</v>
       </c>
       <c r="V126" s="5">
@@ -3307,16 +3323,16 @@
       <c r="A127" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B127" s="32">
-        <v>1</v>
-      </c>
-      <c r="C127" s="32">
+      <c r="B127" s="31">
+        <v>1</v>
+      </c>
+      <c r="C127" s="31">
         <v>0.33</v>
       </c>
-      <c r="D127" s="32">
+      <c r="D127" s="31">
         <v>0.17</v>
       </c>
-      <c r="E127" s="32">
+      <c r="E127" s="31">
         <v>0.11</v>
       </c>
       <c r="H127" s="3" t="s">
@@ -3358,10 +3374,10 @@
       <c r="T127" s="5">
         <v>4</v>
       </c>
-      <c r="U127" s="7">
-        <v>5</v>
-      </c>
-      <c r="V127" s="31">
+      <c r="U127" s="34">
+        <v>5</v>
+      </c>
+      <c r="V127" s="35">
         <v>6</v>
       </c>
       <c r="W127" s="5">
@@ -3381,16 +3397,16 @@
       <c r="A128" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B128" s="32">
-        <v>3</v>
-      </c>
-      <c r="C128" s="32">
-        <v>1</v>
-      </c>
-      <c r="D128" s="32">
+      <c r="B128" s="31">
+        <v>3</v>
+      </c>
+      <c r="C128" s="31">
+        <v>1</v>
+      </c>
+      <c r="D128" s="31">
         <v>0.33</v>
       </c>
-      <c r="E128" s="32">
+      <c r="E128" s="31">
         <v>0.17</v>
       </c>
       <c r="H128" s="3" t="s">
@@ -3444,7 +3460,7 @@
       <c r="X128" s="5">
         <v>8</v>
       </c>
-      <c r="Y128" s="31">
+      <c r="Y128" s="35">
         <v>9</v>
       </c>
       <c r="Z128" s="3" t="s">
@@ -3455,16 +3471,16 @@
       <c r="A129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B129" s="32">
-        <v>6</v>
-      </c>
-      <c r="C129" s="32">
-        <v>3</v>
-      </c>
-      <c r="D129" s="32">
-        <v>1</v>
-      </c>
-      <c r="E129" s="32">
+      <c r="B129" s="31">
+        <v>6</v>
+      </c>
+      <c r="C129" s="31">
+        <v>3</v>
+      </c>
+      <c r="D129" s="31">
+        <v>1</v>
+      </c>
+      <c r="E129" s="31">
         <v>0.33</v>
       </c>
       <c r="H129" s="3" t="s">
@@ -3494,13 +3510,13 @@
       <c r="P129" s="5">
         <v>2</v>
       </c>
-      <c r="Q129" s="7">
+      <c r="Q129" s="6">
         <v>1</v>
       </c>
       <c r="R129" s="5">
         <v>2</v>
       </c>
-      <c r="S129" s="31">
+      <c r="S129" s="35">
         <v>3</v>
       </c>
       <c r="T129" s="5">
@@ -3529,16 +3545,16 @@
       <c r="A130" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="32">
-        <v>9</v>
-      </c>
-      <c r="C130" s="32">
-        <v>6</v>
-      </c>
-      <c r="D130" s="32">
-        <v>3</v>
-      </c>
-      <c r="E130" s="32">
+      <c r="B130" s="31">
+        <v>9</v>
+      </c>
+      <c r="C130" s="31">
+        <v>6</v>
+      </c>
+      <c r="D130" s="31">
+        <v>3</v>
+      </c>
+      <c r="E130" s="31">
         <v>1</v>
       </c>
       <c r="H130" s="3" t="s">
@@ -3580,10 +3596,10 @@
       <c r="T130" s="5">
         <v>4</v>
       </c>
-      <c r="U130" s="7">
-        <v>5</v>
-      </c>
-      <c r="V130" s="31">
+      <c r="U130" s="34">
+        <v>5</v>
+      </c>
+      <c r="V130" s="35">
         <v>6</v>
       </c>
       <c r="W130" s="5">
@@ -3652,13 +3668,13 @@
       <c r="R131" s="5">
         <v>2</v>
       </c>
-      <c r="S131" s="31">
+      <c r="S131" s="35">
         <v>3</v>
       </c>
       <c r="T131" s="5">
         <v>4</v>
       </c>
-      <c r="U131" s="7">
+      <c r="U131" s="34">
         <v>5</v>
       </c>
       <c r="V131" s="5">
@@ -3820,7 +3836,7 @@
         <f>SUM(E135:E137)</f>
         <v>0.37888198757763975</v>
       </c>
-      <c r="F139" s="33"/>
+      <c r="F139" s="32"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -4263,13 +4279,13 @@
       <c r="R158" s="5">
         <v>2</v>
       </c>
-      <c r="S158" s="5">
+      <c r="S158" s="35">
         <v>3</v>
       </c>
       <c r="T158" s="5">
         <v>4</v>
       </c>
-      <c r="U158" s="7">
+      <c r="U158" s="34">
         <v>5</v>
       </c>
       <c r="V158" s="5">
@@ -4292,16 +4308,16 @@
       <c r="A159" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B159" s="32">
-        <v>1</v>
-      </c>
-      <c r="C159" s="32">
+      <c r="B159" s="31">
+        <v>1</v>
+      </c>
+      <c r="C159" s="31">
         <v>0.33</v>
       </c>
-      <c r="D159" s="32">
+      <c r="D159" s="31">
         <v>0.17</v>
       </c>
-      <c r="E159" s="32">
+      <c r="E159" s="31">
         <v>0.11</v>
       </c>
       <c r="H159" s="3" t="s">
@@ -4343,10 +4359,10 @@
       <c r="T159" s="5">
         <v>4</v>
       </c>
-      <c r="U159" s="7">
-        <v>5</v>
-      </c>
-      <c r="V159" s="5">
+      <c r="U159" s="34">
+        <v>5</v>
+      </c>
+      <c r="V159" s="35">
         <v>6</v>
       </c>
       <c r="W159" s="5">
@@ -4366,16 +4382,16 @@
       <c r="A160" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B160" s="32">
-        <v>3</v>
-      </c>
-      <c r="C160" s="32">
-        <v>1</v>
-      </c>
-      <c r="D160" s="32">
+      <c r="B160" s="31">
+        <v>3</v>
+      </c>
+      <c r="C160" s="31">
+        <v>1</v>
+      </c>
+      <c r="D160" s="31">
         <v>0.33</v>
       </c>
-      <c r="E160" s="32">
+      <c r="E160" s="31">
         <v>0.17</v>
       </c>
       <c r="H160" s="3" t="s">
@@ -4429,7 +4445,7 @@
       <c r="X160" s="5">
         <v>8</v>
       </c>
-      <c r="Y160" s="7">
+      <c r="Y160" s="35">
         <v>9</v>
       </c>
       <c r="Z160" s="3" t="s">
@@ -4440,16 +4456,16 @@
       <c r="A161" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B161" s="32">
-        <v>6</v>
-      </c>
-      <c r="C161" s="32">
-        <v>3</v>
-      </c>
-      <c r="D161" s="32">
-        <v>1</v>
-      </c>
-      <c r="E161" s="32">
+      <c r="B161" s="31">
+        <v>6</v>
+      </c>
+      <c r="C161" s="31">
+        <v>3</v>
+      </c>
+      <c r="D161" s="31">
+        <v>1</v>
+      </c>
+      <c r="E161" s="31">
         <v>0.33</v>
       </c>
       <c r="H161" s="3" t="s">
@@ -4485,7 +4501,7 @@
       <c r="R161" s="5">
         <v>2</v>
       </c>
-      <c r="S161" s="5">
+      <c r="S161" s="35">
         <v>3</v>
       </c>
       <c r="T161" s="5">
@@ -4514,16 +4530,16 @@
       <c r="A162" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B162" s="32">
-        <v>9</v>
-      </c>
-      <c r="C162" s="32">
-        <v>6</v>
-      </c>
-      <c r="D162" s="32">
-        <v>3</v>
-      </c>
-      <c r="E162" s="32">
+      <c r="B162" s="31">
+        <v>9</v>
+      </c>
+      <c r="C162" s="31">
+        <v>6</v>
+      </c>
+      <c r="D162" s="31">
+        <v>3</v>
+      </c>
+      <c r="E162" s="31">
         <v>1</v>
       </c>
       <c r="H162" s="3" t="s">
@@ -4565,10 +4581,10 @@
       <c r="T162" s="5">
         <v>4</v>
       </c>
-      <c r="U162" s="7">
-        <v>5</v>
-      </c>
-      <c r="V162" s="5">
+      <c r="U162" s="34">
+        <v>5</v>
+      </c>
+      <c r="V162" s="35">
         <v>6</v>
       </c>
       <c r="W162" s="5">
@@ -4637,13 +4653,13 @@
       <c r="R163" s="5">
         <v>2</v>
       </c>
-      <c r="S163" s="5">
+      <c r="S163" s="35">
         <v>3</v>
       </c>
       <c r="T163" s="5">
         <v>4</v>
       </c>
-      <c r="U163" s="7">
+      <c r="U163" s="34">
         <v>5</v>
       </c>
       <c r="V163" s="5">
@@ -4805,13 +4821,13 @@
         <f>SUM(E167:E169)</f>
         <v>0.37888198757763975</v>
       </c>
-      <c r="F171" s="33"/>
+      <c r="F171" s="32"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A173" s="34" t="s">
+      <c r="A173" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4870,13 +4886,13 @@
       <c r="R175" s="5">
         <v>2</v>
       </c>
-      <c r="S175" s="5">
+      <c r="S175" s="35">
         <v>3</v>
       </c>
       <c r="T175" s="5">
         <v>4</v>
       </c>
-      <c r="U175" s="7">
+      <c r="U175" s="34">
         <v>5</v>
       </c>
       <c r="V175" s="5">
@@ -4899,16 +4915,16 @@
       <c r="A176" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B176" s="32">
-        <v>1</v>
-      </c>
-      <c r="C176" s="32">
+      <c r="B176" s="31">
+        <v>1</v>
+      </c>
+      <c r="C176" s="31">
         <v>0.33</v>
       </c>
-      <c r="D176" s="32">
+      <c r="D176" s="31">
         <v>0.17</v>
       </c>
-      <c r="E176" s="32">
+      <c r="E176" s="31">
         <v>0.11</v>
       </c>
       <c r="H176" s="3" t="s">
@@ -4950,10 +4966,10 @@
       <c r="T176" s="5">
         <v>4</v>
       </c>
-      <c r="U176" s="7">
-        <v>5</v>
-      </c>
-      <c r="V176" s="5">
+      <c r="U176" s="34">
+        <v>5</v>
+      </c>
+      <c r="V176" s="35">
         <v>6</v>
       </c>
       <c r="W176" s="5">
@@ -4973,16 +4989,16 @@
       <c r="A177" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B177" s="32">
-        <v>3</v>
-      </c>
-      <c r="C177" s="32">
-        <v>1</v>
-      </c>
-      <c r="D177" s="32">
+      <c r="B177" s="31">
+        <v>3</v>
+      </c>
+      <c r="C177" s="31">
+        <v>1</v>
+      </c>
+      <c r="D177" s="31">
         <v>0.33</v>
       </c>
-      <c r="E177" s="32">
+      <c r="E177" s="31">
         <v>0.17</v>
       </c>
       <c r="H177" s="3" t="s">
@@ -5036,7 +5052,7 @@
       <c r="X177" s="5">
         <v>8</v>
       </c>
-      <c r="Y177" s="7">
+      <c r="Y177" s="35">
         <v>9</v>
       </c>
       <c r="Z177" s="3" t="s">
@@ -5047,16 +5063,16 @@
       <c r="A178" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B178" s="32">
-        <v>6</v>
-      </c>
-      <c r="C178" s="32">
-        <v>3</v>
-      </c>
-      <c r="D178" s="32">
-        <v>1</v>
-      </c>
-      <c r="E178" s="32">
+      <c r="B178" s="31">
+        <v>6</v>
+      </c>
+      <c r="C178" s="31">
+        <v>3</v>
+      </c>
+      <c r="D178" s="31">
+        <v>1</v>
+      </c>
+      <c r="E178" s="31">
         <v>0.33</v>
       </c>
       <c r="H178" s="3" t="s">
@@ -5092,7 +5108,7 @@
       <c r="R178" s="5">
         <v>2</v>
       </c>
-      <c r="S178" s="5">
+      <c r="S178" s="35">
         <v>3</v>
       </c>
       <c r="T178" s="5">
@@ -5121,16 +5137,16 @@
       <c r="A179" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B179" s="32">
-        <v>9</v>
-      </c>
-      <c r="C179" s="32">
-        <v>6</v>
-      </c>
-      <c r="D179" s="32">
-        <v>3</v>
-      </c>
-      <c r="E179" s="32">
+      <c r="B179" s="31">
+        <v>9</v>
+      </c>
+      <c r="C179" s="31">
+        <v>6</v>
+      </c>
+      <c r="D179" s="31">
+        <v>3</v>
+      </c>
+      <c r="E179" s="31">
         <v>1</v>
       </c>
       <c r="H179" s="3" t="s">
@@ -5172,10 +5188,10 @@
       <c r="T179" s="5">
         <v>4</v>
       </c>
-      <c r="U179" s="7">
-        <v>5</v>
-      </c>
-      <c r="V179" s="5">
+      <c r="U179" s="34">
+        <v>5</v>
+      </c>
+      <c r="V179" s="35">
         <v>6</v>
       </c>
       <c r="W179" s="5">
@@ -5244,13 +5260,13 @@
       <c r="R180" s="5">
         <v>2</v>
       </c>
-      <c r="S180" s="5">
+      <c r="S180" s="35">
         <v>3</v>
       </c>
       <c r="T180" s="5">
         <v>4</v>
       </c>
-      <c r="U180" s="7">
+      <c r="U180" s="34">
         <v>5</v>
       </c>
       <c r="V180" s="5">
@@ -5412,7 +5428,7 @@
         <f>SUM(E184:E186)</f>
         <v>0.37888198757763975</v>
       </c>
-      <c r="F188" s="33"/>
+      <c r="F188" s="32"/>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
